--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Desktop\graficas_unissa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\Proyectos\graficas-uinissa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E4C28-1E0D-4970-ADEC-7A4C4B35BDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C2FA84-4156-4792-93A2-24AE05A66F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{4A23034F-4E52-4C87-B0F0-EB7DD2EAA6CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4A23034F-4E52-4C87-B0F0-EB7DD2EAA6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Servicios_Salud" sheetId="5" r:id="rId2"/>
-    <sheet name="Escolaridad" sheetId="3" r:id="rId3"/>
-    <sheet name="Escolaridad_Tabla_Freq" sheetId="4" r:id="rId4"/>
-    <sheet name="Cedula 1 Mariana Jasso" sheetId="2" r:id="rId5"/>
+    <sheet name="Cartilla" sheetId="9" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Servicios_Salud" sheetId="5" r:id="rId5"/>
+    <sheet name="Escolaridad" sheetId="3" r:id="rId6"/>
+    <sheet name="Escolaridad_Tabla_Freq" sheetId="4" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="8" r:id="rId8"/>
+    <sheet name="Cedula 1 Mariana Jasso" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Servicios_Salud!$A$3:$B$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cartilla!$A$1:$A$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Escolaridad_Tabla_Freq!$B$38:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Servicios_Salud!$A$3:$B$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +40,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="181">
   <si>
     <t>Hernandez Hernandez Emilio</t>
   </si>
@@ -525,18 +529,6 @@
         <family val="2"/>
       </rPr>
       <t>ACCESO A SERVICIOS DE SALUD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CARTILLA NACIONAL DE SALUD</t>
     </r>
   </si>
   <si>
@@ -637,18 +629,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. SI
-2. NO</t>
-    </r>
-  </si>
-  <si>
     <t>Flores Osorio Victoria Patricia</t>
   </si>
   <si>
@@ -698,15 +678,98 @@
 6.SEDENA
 7.SEGURO MÉDICO 8.OTRO(S)</t>
   </si>
+  <si>
+    <t>Balance Actual</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Nomina</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Coppel</t>
+  </si>
+  <si>
+    <t>Renta</t>
+  </si>
+  <si>
+    <t>Faltante</t>
+  </si>
+  <si>
+    <t>Dulces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio de Salud                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frec. Absoluta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frec. Relativa (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaría De Salud                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imss                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaria - Imms                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otro(S)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguno                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issste                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marina                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguro Medico                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemex                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedena                              </t>
+  </si>
+  <si>
+    <t>1. SI
+2. NO</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cartilla Nacional
+de
+Salud</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d\,\ m"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +879,21 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -944,12 +1022,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1066,18 +1145,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,11 +1162,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="19" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{FAEC6DC1-042A-4F4F-A0C0-6654A16F0E45}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1161,7 +1273,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A86643EB-A94A-4455-973F-23049BF28DCC}" name="Escolaridad" totalsRowLabel="Total" totalsRowDxfId="5"/>
     <tableColumn id="2" xr3:uid="{D1E95A48-CB24-42DB-B7E6-4ADFC6270FD1}" name="Pacientes" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7C3095E7-1364-4F15-9957-F8359CF91CB8}" name="%" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{7C3095E7-1364-4F15-9957-F8359CF91CB8}" name="%" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
       <calculatedColumnFormula>+Table1[[#This Row],[Pacientes]]/Table1[[#Totals],[Pacientes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1489,94 +1601,94 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="J1" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1608,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1640,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1672,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1704,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1736,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1768,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1800,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1832,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1864,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1896,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1928,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -1960,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -1992,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2024,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2056,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2088,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2120,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2152,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -2184,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2216,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -2248,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -2280,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -2312,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -2344,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -2376,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -2408,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -2440,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -2472,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -2504,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -2536,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -2568,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -2600,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -2632,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -2664,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -2696,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>36</v>
       </c>
@@ -2728,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -2760,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -2792,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -2822,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>40</v>
       </c>
@@ -2854,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>41</v>
       </c>
@@ -2886,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>42</v>
       </c>
@@ -2918,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>43</v>
       </c>
@@ -2950,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -2982,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>45</v>
       </c>
@@ -3014,7 +3126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>46</v>
       </c>
@@ -3046,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>47</v>
       </c>
@@ -3078,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>48</v>
       </c>
@@ -3110,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>49</v>
       </c>
@@ -3142,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>50</v>
       </c>
@@ -3174,7 +3286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>51</v>
       </c>
@@ -3206,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>52</v>
       </c>
@@ -3238,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>53</v>
       </c>
@@ -3270,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>54</v>
       </c>
@@ -3302,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>55</v>
       </c>
@@ -3334,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>56</v>
       </c>
@@ -3366,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>57</v>
       </c>
@@ -3398,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>58</v>
       </c>
@@ -3430,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>59</v>
       </c>
@@ -3462,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>60</v>
       </c>
@@ -3494,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>61</v>
       </c>
@@ -3526,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>62</v>
       </c>
@@ -3558,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>63</v>
       </c>
@@ -3590,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>64</v>
       </c>
@@ -3622,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>65</v>
       </c>
@@ -3654,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>66</v>
       </c>
@@ -3686,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>67</v>
       </c>
@@ -3718,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>68</v>
       </c>
@@ -3750,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>69</v>
       </c>
@@ -3782,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>70</v>
       </c>
@@ -3814,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>71</v>
       </c>
@@ -3846,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>72</v>
       </c>
@@ -3878,7 +3990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -3910,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>74</v>
       </c>
@@ -3942,7 +4054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>75</v>
       </c>
@@ -3974,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>76</v>
       </c>
@@ -4006,7 +4118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>77</v>
       </c>
@@ -4038,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>78</v>
       </c>
@@ -4070,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>79</v>
       </c>
@@ -4102,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>80</v>
       </c>
@@ -4134,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>81</v>
       </c>
@@ -4166,7 +4278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>82</v>
       </c>
@@ -4198,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>83</v>
       </c>
@@ -4230,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>84</v>
       </c>
@@ -4262,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>85</v>
       </c>
@@ -4294,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>86</v>
       </c>
@@ -4326,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>87</v>
       </c>
@@ -4358,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>88</v>
       </c>
@@ -4390,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>89</v>
       </c>
@@ -4422,7 +4534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>90</v>
       </c>
@@ -4454,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>91</v>
       </c>
@@ -4486,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>92</v>
       </c>
@@ -4518,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>93</v>
       </c>
@@ -4550,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>94</v>
       </c>
@@ -4582,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>95</v>
       </c>
@@ -4614,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>96</v>
       </c>
@@ -4646,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>97</v>
       </c>
@@ -4678,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>98</v>
       </c>
@@ -4710,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>99</v>
       </c>
@@ -4742,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>100</v>
       </c>
@@ -4772,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>101</v>
       </c>
@@ -4802,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>102</v>
       </c>
@@ -4832,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>103</v>
       </c>
@@ -4862,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>104</v>
       </c>
@@ -4892,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>105</v>
       </c>
@@ -4922,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>106</v>
       </c>
@@ -4952,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>107</v>
       </c>
@@ -4982,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>108</v>
       </c>
@@ -5012,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>109</v>
       </c>
@@ -5042,12 +5154,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>110</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C113" s="29">
         <v>48</v>
@@ -5096,35 +5208,1221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F2F95-5DDD-49C3-BE65-E9E02BAC80C8}">
+  <dimension ref="A1:G115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112:G115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>+A2&amp;","</f>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">+A3&amp;","</f>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>1</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>1</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>1</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>1</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>1</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>1</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>1</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>1</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>1</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>1</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>1</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>1</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>1</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>1</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>1</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>1</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>1</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>1</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>1</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>1</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>1</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>1</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>1</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>1</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>1</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>1</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>1</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>1</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>1</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>1</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
+        <v>1</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
+        <v>1</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
+        <v>1</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="17">
+        <v>1</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
+        <v>1</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
+        <v>1</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="17">
+        <v>1</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="17">
+        <v>1</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
+        <v>1</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>1</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="17">
+        <v>1</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
+        <v>1</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
+        <v>1</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B111" si="1">+A67&amp;","</f>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>1</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
+        <v>1</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
+        <v>1</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="15">
+        <v>1</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
+        <v>1</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
+        <v>1</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
+        <v>1</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
+        <v>1</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
+        <v>1</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
+        <v>1</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
+        <v>1</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
+        <v>1</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
+        <v>1</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
+        <v>1</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="15">
+        <v>1</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="15">
+        <v>1</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
+        <v>1</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="15">
+        <v>1</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="19">
+        <v>1</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="21">
+        <v>1</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
+        <v>1</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
+        <v>1</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
+        <v>1</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <v>1</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
+        <v>1</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="21">
+        <v>1</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
+        <v>2</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="15">
+        <v>2</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="18">
+        <v>2</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="18">
+        <v>2</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="18">
+        <v>2</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>2</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
+        <v>2</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>2</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="17">
+        <v>2</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="17">
+        <v>2</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="17">
+        <v>2</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="17">
+        <v>2</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
+        <v>2</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="15">
+        <v>2</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>2</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="21">
+        <v>2</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="21">
+        <v>2</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="21">
+        <v>2</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="63" x14ac:dyDescent="0.4">
+      <c r="E112" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F112" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G112" s="64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="E113" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F113" s="42">
+        <v>92</v>
+      </c>
+      <c r="G113" s="44">
+        <f>+F113/$F$115</f>
+        <v>0.83636363636363631</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="E114" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F114" s="42">
+        <v>18</v>
+      </c>
+      <c r="G114" s="44">
+        <f>+F114/$F$115</f>
+        <v>0.16363636363636364</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="E115" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="41">
+        <f>+SUM(F113:F114)</f>
+        <v>110</v>
+      </c>
+      <c r="G115" s="45">
+        <f>+SUM(G113:G114)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28326DF2-0552-4523-82F0-484BF5593C7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52F7725-653E-4452-847F-9FF45146E6D0}">
+  <dimension ref="G3:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13" style="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="56">
+        <f>+SUM(H4:H10)</f>
+        <v>6855</v>
+      </c>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="51">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="51">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="51">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="52">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="52">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="54">
+        <f>+SUM(H9:H10)</f>
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="51">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="57">
+        <f>+H13-H11</f>
+        <v>1124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE199016-7B0C-482C-AC06-5EC441F31531}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>0</v>
       </c>
@@ -5133,7 +6431,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>0</v>
       </c>
@@ -5142,7 +6440,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>0</v>
       </c>
@@ -5151,7 +6449,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>0</v>
       </c>
@@ -5160,7 +6458,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>0</v>
       </c>
@@ -5169,7 +6467,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>0</v>
       </c>
@@ -5178,7 +6476,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>0</v>
       </c>
@@ -5187,7 +6485,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>0</v>
       </c>
@@ -5196,7 +6494,7 @@
         <v xml:space="preserve">0, </v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>1</v>
       </c>
@@ -5205,7 +6503,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>1</v>
       </c>
@@ -5214,7 +6512,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -5223,7 +6521,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>1</v>
       </c>
@@ -5232,7 +6530,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>1</v>
       </c>
@@ -5241,7 +6539,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>1</v>
       </c>
@@ -5250,7 +6548,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>1</v>
       </c>
@@ -5259,7 +6557,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>1</v>
       </c>
@@ -5268,7 +6566,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>1</v>
       </c>
@@ -5277,7 +6575,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>1</v>
       </c>
@@ -5286,7 +6584,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>1</v>
       </c>
@@ -5295,7 +6593,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>1</v>
       </c>
@@ -5304,7 +6602,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>1</v>
       </c>
@@ -5313,7 +6611,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>1</v>
       </c>
@@ -5322,7 +6620,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1</v>
       </c>
@@ -5331,7 +6629,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>1</v>
       </c>
@@ -5340,7 +6638,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>1</v>
       </c>
@@ -5349,7 +6647,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>1</v>
       </c>
@@ -5358,7 +6656,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>1</v>
       </c>
@@ -5367,7 +6665,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>1</v>
       </c>
@@ -5376,7 +6674,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>1</v>
       </c>
@@ -5385,7 +6683,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>1</v>
       </c>
@@ -5394,7 +6692,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>1</v>
       </c>
@@ -5403,7 +6701,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>1</v>
       </c>
@@ -5412,7 +6710,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>1</v>
       </c>
@@ -5421,7 +6719,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>1</v>
       </c>
@@ -5430,7 +6728,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>1</v>
       </c>
@@ -5439,7 +6737,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>1</v>
       </c>
@@ -5448,7 +6746,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>1</v>
       </c>
@@ -5457,7 +6755,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>1</v>
       </c>
@@ -5466,7 +6764,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>1</v>
       </c>
@@ -5475,7 +6773,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>1</v>
       </c>
@@ -5484,7 +6782,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>1</v>
       </c>
@@ -5493,7 +6791,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>1</v>
       </c>
@@ -5502,7 +6800,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>1</v>
       </c>
@@ -5511,7 +6809,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>1</v>
       </c>
@@ -5520,7 +6818,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>1</v>
       </c>
@@ -5529,7 +6827,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>1</v>
       </c>
@@ -5538,7 +6836,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>1</v>
       </c>
@@ -5547,7 +6845,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>1</v>
       </c>
@@ -5556,7 +6854,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>1</v>
       </c>
@@ -5565,7 +6863,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>1</v>
       </c>
@@ -5574,7 +6872,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>1</v>
       </c>
@@ -5583,7 +6881,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>1</v>
       </c>
@@ -5592,7 +6890,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>1</v>
       </c>
@@ -5601,7 +6899,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>1</v>
       </c>
@@ -5610,7 +6908,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>1</v>
       </c>
@@ -5619,7 +6917,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>1</v>
       </c>
@@ -5628,7 +6926,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>1</v>
       </c>
@@ -5637,7 +6935,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>1</v>
       </c>
@@ -5646,7 +6944,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>1</v>
       </c>
@@ -5655,7 +6953,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>1</v>
       </c>
@@ -5664,7 +6962,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>1</v>
       </c>
@@ -5673,7 +6971,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>1</v>
       </c>
@@ -5682,7 +6980,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>1</v>
       </c>
@@ -5691,7 +6989,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>1</v>
       </c>
@@ -5700,7 +6998,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>1</v>
       </c>
@@ -5709,7 +7007,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>1</v>
       </c>
@@ -5718,7 +7016,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>1</v>
       </c>
@@ -5727,7 +7025,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>1</v>
       </c>
@@ -5736,7 +7034,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>1</v>
       </c>
@@ -5745,7 +7043,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>1</v>
       </c>
@@ -5754,7 +7052,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>1</v>
       </c>
@@ -5763,7 +7061,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>1</v>
       </c>
@@ -5772,7 +7070,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>1</v>
       </c>
@@ -5781,7 +7079,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>2</v>
       </c>
@@ -5790,7 +7088,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>2</v>
       </c>
@@ -5799,7 +7097,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>2</v>
       </c>
@@ -5808,7 +7106,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>2</v>
       </c>
@@ -5817,7 +7115,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>2</v>
       </c>
@@ -5826,7 +7124,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>2</v>
       </c>
@@ -5835,7 +7133,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>2</v>
       </c>
@@ -5844,7 +7142,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>2</v>
       </c>
@@ -5853,7 +7151,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>2</v>
       </c>
@@ -5862,7 +7160,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>2</v>
       </c>
@@ -5871,7 +7169,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>2</v>
       </c>
@@ -5880,7 +7178,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>2</v>
       </c>
@@ -5889,7 +7187,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>3</v>
       </c>
@@ -5898,7 +7196,7 @@
         <v xml:space="preserve">3, </v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>3</v>
       </c>
@@ -5907,7 +7205,7 @@
         <v xml:space="preserve">3, </v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>3</v>
       </c>
@@ -5916,7 +7214,7 @@
         <v xml:space="preserve">3, </v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>3</v>
       </c>
@@ -5925,7 +7223,7 @@
         <v xml:space="preserve">3, </v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>5</v>
       </c>
@@ -5934,7 +7232,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>7</v>
       </c>
@@ -5943,7 +7241,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>8</v>
       </c>
@@ -5952,7 +7250,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>8</v>
       </c>
@@ -5961,7 +7259,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>8</v>
       </c>
@@ -5970,7 +7268,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>8</v>
       </c>
@@ -5979,7 +7277,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>8</v>
       </c>
@@ -5988,16 +7286,16 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>8</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" ref="B101:B132" si="3">+A101&amp;", "</f>
+        <f t="shared" ref="B101:B114" si="3">+A101&amp;", "</f>
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>8</v>
       </c>
@@ -6006,7 +7304,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>8</v>
       </c>
@@ -6015,7 +7313,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>8</v>
       </c>
@@ -6024,90 +7322,90 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">1-2, </v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="3"/>
@@ -6128,7 +7426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A7F9FF-05E6-4960-8D50-CCC439F771E6}">
   <dimension ref="A1:B113"/>
   <sheetViews>
@@ -6136,25 +7434,25 @@
       <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>6</v>
       </c>
@@ -6163,7 +7461,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -6172,7 +7470,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -6181,7 +7479,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -6190,7 +7488,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -6199,7 +7497,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -6208,7 +7506,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -6217,7 +7515,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -6226,7 +7524,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -6235,7 +7533,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -6244,7 +7542,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>6</v>
       </c>
@@ -6253,7 +7551,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>5</v>
       </c>
@@ -6262,7 +7560,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>6</v>
       </c>
@@ -6271,7 +7569,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>5</v>
       </c>
@@ -6280,7 +7578,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>7</v>
       </c>
@@ -6289,7 +7587,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>7</v>
       </c>
@@ -6298,7 +7596,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>5</v>
       </c>
@@ -6307,7 +7605,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>6</v>
       </c>
@@ -6316,7 +7614,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>6</v>
       </c>
@@ -6325,7 +7623,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>6</v>
       </c>
@@ -6334,7 +7632,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>5</v>
       </c>
@@ -6343,7 +7641,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>4</v>
       </c>
@@ -6352,7 +7650,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>7</v>
       </c>
@@ -6361,7 +7659,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>4</v>
       </c>
@@ -6370,7 +7668,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>7</v>
       </c>
@@ -6379,7 +7677,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>5</v>
       </c>
@@ -6388,7 +7686,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>4</v>
       </c>
@@ -6397,7 +7695,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>5</v>
       </c>
@@ -6406,7 +7704,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>4</v>
       </c>
@@ -6415,7 +7713,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>5</v>
       </c>
@@ -6424,7 +7722,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>4</v>
       </c>
@@ -6433,7 +7731,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>4</v>
       </c>
@@ -6442,7 +7740,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>5</v>
       </c>
@@ -6451,7 +7749,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>6</v>
       </c>
@@ -6460,7 +7758,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>6</v>
       </c>
@@ -6469,7 +7767,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>5</v>
       </c>
@@ -6478,7 +7776,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>7</v>
       </c>
@@ -6487,7 +7785,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>6</v>
       </c>
@@ -6496,7 +7794,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>6</v>
       </c>
@@ -6505,7 +7803,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>5</v>
       </c>
@@ -6514,7 +7812,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>5</v>
       </c>
@@ -6523,7 +7821,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>5</v>
       </c>
@@ -6532,7 +7830,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>7</v>
       </c>
@@ -6541,7 +7839,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>4</v>
       </c>
@@ -6550,7 +7848,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>6</v>
       </c>
@@ -6559,7 +7857,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>8</v>
       </c>
@@ -6568,7 +7866,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>4</v>
       </c>
@@ -6577,7 +7875,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>4</v>
       </c>
@@ -6586,7 +7884,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>6</v>
       </c>
@@ -6595,7 +7893,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>8</v>
       </c>
@@ -6604,7 +7902,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>2</v>
       </c>
@@ -6613,7 +7911,7 @@
         <v xml:space="preserve">2, </v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>6</v>
       </c>
@@ -6622,7 +7920,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>5</v>
       </c>
@@ -6631,7 +7929,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>6</v>
       </c>
@@ -6640,7 +7938,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>6</v>
       </c>
@@ -6649,7 +7947,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>4</v>
       </c>
@@ -6658,7 +7956,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>4</v>
       </c>
@@ -6667,7 +7965,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>6</v>
       </c>
@@ -6676,7 +7974,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>4</v>
       </c>
@@ -6685,7 +7983,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>6</v>
       </c>
@@ -6694,7 +7992,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>5</v>
       </c>
@@ -6703,7 +8001,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>7</v>
       </c>
@@ -6712,7 +8010,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>4</v>
       </c>
@@ -6721,7 +8019,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>7</v>
       </c>
@@ -6730,7 +8028,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>6</v>
       </c>
@@ -6739,7 +8037,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>8</v>
       </c>
@@ -6748,7 +8046,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>1</v>
       </c>
@@ -6757,7 +8055,7 @@
         <v xml:space="preserve">1, </v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>6</v>
       </c>
@@ -6766,7 +8064,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>7</v>
       </c>
@@ -6775,7 +8073,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>5</v>
       </c>
@@ -6784,7 +8082,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>4</v>
       </c>
@@ -6793,7 +8091,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>5</v>
       </c>
@@ -6802,7 +8100,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>7</v>
       </c>
@@ -6811,7 +8109,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>6</v>
       </c>
@@ -6820,7 +8118,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>6</v>
       </c>
@@ -6829,7 +8127,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>5</v>
       </c>
@@ -6838,7 +8136,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>5</v>
       </c>
@@ -6847,7 +8145,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>5</v>
       </c>
@@ -6856,7 +8154,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>5</v>
       </c>
@@ -6865,7 +8163,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>5</v>
       </c>
@@ -6874,7 +8172,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>4</v>
       </c>
@@ -6883,7 +8181,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>5</v>
       </c>
@@ -6892,7 +8190,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>5</v>
       </c>
@@ -6901,7 +8199,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>6</v>
       </c>
@@ -6910,7 +8208,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>4</v>
       </c>
@@ -6919,7 +8217,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>6</v>
       </c>
@@ -6928,7 +8226,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>8</v>
       </c>
@@ -6937,7 +8235,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>5</v>
       </c>
@@ -6946,7 +8244,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>4</v>
       </c>
@@ -6955,7 +8253,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>5</v>
       </c>
@@ -6964,7 +8262,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>5</v>
       </c>
@@ -6973,7 +8271,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>5</v>
       </c>
@@ -6982,7 +8280,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>7</v>
       </c>
@@ -6991,7 +8289,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>7</v>
       </c>
@@ -7000,7 +8298,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>7</v>
       </c>
@@ -7009,7 +8307,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>5</v>
       </c>
@@ -7018,7 +8316,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>5</v>
       </c>
@@ -7027,7 +8325,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>6</v>
       </c>
@@ -7036,7 +8334,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>7</v>
       </c>
@@ -7045,7 +8343,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>5</v>
       </c>
@@ -7054,7 +8352,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="20">
         <v>3</v>
       </c>
@@ -7063,7 +8361,7 @@
         <v xml:space="preserve">3, </v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
         <v>8</v>
       </c>
@@ -7072,7 +8370,7 @@
         <v xml:space="preserve">8, </v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="20">
         <v>5</v>
       </c>
@@ -7081,7 +8379,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="20">
         <v>6</v>
       </c>
@@ -7090,7 +8388,7 @@
         <v xml:space="preserve">6, </v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="20">
         <v>5</v>
       </c>
@@ -7099,7 +8397,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="20">
         <v>5</v>
       </c>
@@ -7108,7 +8406,7 @@
         <v xml:space="preserve">5, </v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="20">
         <v>4</v>
       </c>
@@ -7117,7 +8415,7 @@
         <v xml:space="preserve">4, </v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="20">
         <v>3</v>
       </c>
@@ -7126,7 +8424,7 @@
         <v xml:space="preserve">3, </v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>7</v>
       </c>
@@ -7135,7 +8433,7 @@
         <v xml:space="preserve">7, </v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="30">
         <v>4</v>
       </c>
@@ -7152,35 +8450,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DBA84-5FAE-4153-BEB0-F66EB1B28800}">
-  <dimension ref="B3:D34"/>
+  <dimension ref="B3:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>146</v>
       </c>
       <c r="C4" s="31">
         <v>2</v>
@@ -7190,9 +8488,9 @@
         <v>1.8181818181818181E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="31">
         <v>3</v>
@@ -7202,9 +8500,9 @@
         <v>2.7272727272727271E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="31">
         <v>2</v>
@@ -7214,9 +8512,9 @@
         <v>1.8181818181818181E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="31">
         <v>23</v>
@@ -7226,9 +8524,9 @@
         <v>0.20909090909090908</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="31">
         <v>34</v>
@@ -7238,9 +8536,9 @@
         <v>0.30909090909090908</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="31">
         <v>26</v>
@@ -7250,9 +8548,9 @@
         <v>0.23636363636363636</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="31">
         <v>15</v>
@@ -7262,9 +8560,9 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="31">
         <v>5</v>
@@ -7274,9 +8572,9 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="31">
         <f>SUBTOTAL(109,Table1[Pacientes])</f>
@@ -7287,155 +8585,299 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
+    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
+    <row r="25" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B25" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="D25" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B26" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="42">
+        <v>2</v>
+      </c>
+      <c r="D26" s="44">
+        <v>1.8181818181818181E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B27" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="42">
+        <v>3</v>
+      </c>
+      <c r="D27" s="44">
+        <v>2.7272727272727271E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B28" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="42">
+        <v>2</v>
+      </c>
+      <c r="D28" s="44">
+        <v>1.8181818181818181E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B29" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="42">
+        <v>23</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0.20909090909090908</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B30" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="42">
+        <v>34</v>
+      </c>
+      <c r="D30" s="44">
+        <v>0.30909090909090908</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B31" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="42">
+        <v>26</v>
+      </c>
+      <c r="D31" s="44">
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B32" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="42">
+        <v>15</v>
+      </c>
+      <c r="D32" s="44">
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B33" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="42">
+        <v>5</v>
+      </c>
+      <c r="D33" s="44">
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B34" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="46">
-        <v>2</v>
-      </c>
-      <c r="D26" s="48">
-        <v>1.8181818181818181E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="46">
-        <v>3</v>
-      </c>
-      <c r="D27" s="48">
-        <v>2.7272727272727271E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="46">
-        <v>2</v>
-      </c>
-      <c r="D28" s="48">
-        <v>1.8181818181818181E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B29" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="46">
-        <v>23</v>
-      </c>
-      <c r="D29" s="48">
-        <v>0.20909090909090908</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B30" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="46">
-        <v>34</v>
-      </c>
-      <c r="D30" s="48">
-        <v>0.30909090909090908</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="46">
-        <v>26</v>
-      </c>
-      <c r="D31" s="48">
-        <v>0.23636363636363636</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="47" t="s">
+      <c r="C34" s="41">
+        <v>110</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B38" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="46">
-        <v>15</v>
-      </c>
-      <c r="D32" s="48">
-        <v>0.13636363636363635</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="46">
-        <v>5</v>
-      </c>
-      <c r="D33" s="48">
-        <v>4.5454545454545456E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="45">
+      <c r="D38" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B39" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="42">
+        <v>12</v>
+      </c>
+      <c r="D39" s="44">
+        <f>+C39/$C$49</f>
+        <v>0.10909090909090909</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B40" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="42">
+        <v>4</v>
+      </c>
+      <c r="D40" s="44">
+        <f>+C40/$C$49</f>
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B41" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="42">
+        <v>1</v>
+      </c>
+      <c r="D41" s="44">
+        <f>+C41/$C$49</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B42" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="42">
+        <v>8</v>
+      </c>
+      <c r="D42" s="44">
+        <f>+C42/$C$49</f>
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B43" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="42">
+        <v>9</v>
+      </c>
+      <c r="D43" s="44">
+        <f>+C43/$C$49</f>
+        <v>8.1818181818181818E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B44" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="42">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44">
+        <f>+C44/$C$49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B45" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="42">
+        <v>10</v>
+      </c>
+      <c r="D45" s="44">
+        <f>+C45/$C$49</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B46" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="42">
+        <v>65</v>
+      </c>
+      <c r="D46" s="44">
+        <f>+C46/$C$49</f>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B47" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="42">
+        <v>0</v>
+      </c>
+      <c r="D47" s="44">
+        <f>+C47/$C$49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B48" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="42">
+        <v>1</v>
+      </c>
+      <c r="D48" s="44">
+        <f>+C48/$C$49</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B49" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="41">
+        <f>+SUM(C39:C48)</f>
         <v>110</v>
       </c>
-      <c r="D34" s="49">
-        <v>0.99999999999999989</v>
+      <c r="D49" s="45">
+        <f>+SUM(D39:D48)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +8889,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D8D00-9598-4E7E-BB98-90412B26ABCB}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2" s="58">
+        <v>0.59089999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="58">
+        <v>0.1091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="58">
+        <v>9.0899999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="58">
+        <v>8.1799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="58">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="58">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="58">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="58">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="58">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833DFD7-36DB-4B76-94CC-1981ECC26B80}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7458,20 +9041,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="12.42578125" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="12.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7491,7 +9074,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7511,7 +9094,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7531,7 +9114,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7549,7 +9132,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7567,7 +9150,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7585,7 +9168,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -7621,7 +9204,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -7655,7 +9238,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -7689,7 +9272,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -7723,7 +9306,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -7757,7 +9340,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
@@ -7791,7 +9374,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -7825,7 +9408,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -7859,7 +9442,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -7893,7 +9476,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
@@ -7927,7 +9510,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
@@ -7961,7 +9544,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7979,7 +9562,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7997,7 +9580,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\Proyectos\graficas-uinissa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C2FA84-4156-4792-93A2-24AE05A66F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3477A05D-EE52-400E-B0E8-F2E50F5BFD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4A23034F-4E52-4C87-B0F0-EB7DD2EAA6CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{4A23034F-4E52-4C87-B0F0-EB7DD2EAA6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="182">
   <si>
     <t>Hernandez Hernandez Emilio</t>
   </si>
@@ -749,27 +749,55 @@
 2. NO</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Cartilla Nacional
 de
 Salud</t>
+  </si>
+  <si>
+    <t>Licenciatura</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(no tienen cartilla)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(tienen cartilla)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d\,\ m"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +922,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1028,7 +1063,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1162,35 +1197,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="19" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1205,6 +1225,24 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1600,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DA954E-DC77-4664-A7DB-9767394DEB7F}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="87" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
@@ -1640,53 +1678,53 @@
       <c r="I1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="56" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -5211,20 +5249,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F2F95-5DDD-49C3-BE65-E9E02BAC80C8}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112:G115"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6219,19 +6257,19 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="63" x14ac:dyDescent="0.4">
-      <c r="E112" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="F112" s="63" t="s">
+      <c r="E112" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="G112" s="64" t="s">
+      <c r="G112" s="59" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="113" spans="5:7" ht="21" x14ac:dyDescent="0.4">
       <c r="E113" s="43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F113" s="42">
         <v>92</v>
@@ -6243,7 +6281,7 @@
     </row>
     <row r="114" spans="5:7" ht="21" x14ac:dyDescent="0.4">
       <c r="E114" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F114" s="42">
         <v>18</v>
@@ -6276,7 +6314,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6302,20 +6340,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="52">
         <f>+SUM(H4:H10)</f>
         <v>6855</v>
       </c>
-      <c r="J3" s="55"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="47">
         <v>117</v>
       </c>
     </row>
@@ -6323,7 +6361,7 @@
       <c r="G5" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="47">
         <v>645</v>
       </c>
     </row>
@@ -6331,7 +6369,7 @@
       <c r="G6" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="47">
         <v>347</v>
       </c>
     </row>
@@ -6339,18 +6377,18 @@
       <c r="G7" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="47">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="51"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="48">
         <v>4976</v>
       </c>
     </row>
@@ -6358,15 +6396,15 @@
       <c r="G10" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="48">
         <v>700</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="50">
         <f>+SUM(H9:H10)</f>
         <v>5676</v>
       </c>
@@ -6375,7 +6413,7 @@
       <c r="G13" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="47">
         <v>6800</v>
       </c>
     </row>
@@ -6383,7 +6421,7 @@
       <c r="G14" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="53">
         <f>+H13-H11</f>
         <v>1124</v>
       </c>
@@ -6415,12 +6453,12 @@
       <c r="A2" s="37"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="60" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="61"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -7430,8 +7468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A7F9FF-05E6-4960-8D50-CCC439F771E6}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7445,12 +7483,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="63"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
@@ -8454,15 +8492,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DBA84-5FAE-4153-BEB0-F66EB1B28800}">
   <dimension ref="B3:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:D49"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N17:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -8642,10 +8680,11 @@
         <v>144</v>
       </c>
       <c r="C26" s="42">
-        <v>2</v>
-      </c>
-      <c r="D26" s="44">
-        <v>1.8181818181818181E-2</v>
+        <v>3</v>
+      </c>
+      <c r="D26" s="65">
+        <f>+C26/$C$34</f>
+        <v>2.7272727272727271E-2</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="21" x14ac:dyDescent="0.4">
@@ -8653,10 +8692,11 @@
         <v>145</v>
       </c>
       <c r="C27" s="42">
-        <v>3</v>
-      </c>
-      <c r="D27" s="44">
-        <v>2.7272727272727271E-2</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="65">
+        <f t="shared" ref="D27:D33" si="0">+C27/$C$34</f>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="21" x14ac:dyDescent="0.4">
@@ -8666,7 +8706,8 @@
       <c r="C28" s="42">
         <v>2</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="65">
+        <f t="shared" si="0"/>
         <v>1.8181818181818181E-2</v>
       </c>
     </row>
@@ -8675,54 +8716,59 @@
         <v>147</v>
       </c>
       <c r="C29" s="42">
-        <v>23</v>
-      </c>
-      <c r="D29" s="44">
-        <v>0.20909090909090908</v>
+        <v>22</v>
+      </c>
+      <c r="D29" s="65">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B30" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="42">
-        <v>34</v>
-      </c>
-      <c r="D30" s="44">
-        <v>0.30909090909090908</v>
+        <v>30</v>
+      </c>
+      <c r="D30" s="65">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B31" s="43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31" s="42">
-        <v>26</v>
-      </c>
-      <c r="D31" s="44">
-        <v>0.23636363636363636</v>
+        <v>22</v>
+      </c>
+      <c r="D31" s="65">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B32" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32" s="42">
         <v>15</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="65">
+        <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B33" s="43" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C33" s="42">
-        <v>5</v>
-      </c>
-      <c r="D33" s="44">
-        <v>4.5454545454545456E-2</v>
+        <v>6</v>
+      </c>
+      <c r="D33" s="65">
+        <f t="shared" si="0"/>
+        <v>5.4545454545454543E-2</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="21" x14ac:dyDescent="0.4">
@@ -8730,10 +8776,12 @@
         <v>143</v>
       </c>
       <c r="C34" s="41">
+        <f>+SUM(C26:C33)</f>
         <v>110</v>
       </c>
       <c r="D34" s="45">
-        <v>0.99999999999999989</v>
+        <f>+SUM(D26:D33)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="21" x14ac:dyDescent="0.4">
@@ -8754,8 +8802,8 @@
       <c r="C39" s="42">
         <v>12</v>
       </c>
-      <c r="D39" s="44">
-        <f>+C39/$C$49</f>
+      <c r="D39" s="65">
+        <f t="shared" ref="D39:D48" si="1">+C39/$C$49</f>
         <v>0.10909090909090909</v>
       </c>
     </row>
@@ -8766,8 +8814,8 @@
       <c r="C40" s="42">
         <v>4</v>
       </c>
-      <c r="D40" s="44">
-        <f>+C40/$C$49</f>
+      <c r="D40" s="65">
+        <f t="shared" si="1"/>
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
@@ -8778,8 +8826,8 @@
       <c r="C41" s="42">
         <v>1</v>
       </c>
-      <c r="D41" s="44">
-        <f>+C41/$C$49</f>
+      <c r="D41" s="65">
+        <f t="shared" si="1"/>
         <v>9.0909090909090905E-3</v>
       </c>
     </row>
@@ -8790,8 +8838,8 @@
       <c r="C42" s="42">
         <v>8</v>
       </c>
-      <c r="D42" s="44">
-        <f>+C42/$C$49</f>
+      <c r="D42" s="65">
+        <f t="shared" si="1"/>
         <v>7.2727272727272724E-2</v>
       </c>
     </row>
@@ -8802,8 +8850,8 @@
       <c r="C43" s="42">
         <v>9</v>
       </c>
-      <c r="D43" s="44">
-        <f>+C43/$C$49</f>
+      <c r="D43" s="65">
+        <f t="shared" si="1"/>
         <v>8.1818181818181818E-2</v>
       </c>
     </row>
@@ -8814,8 +8862,8 @@
       <c r="C44" s="42">
         <v>0</v>
       </c>
-      <c r="D44" s="44">
-        <f>+C44/$C$49</f>
+      <c r="D44" s="65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8826,8 +8874,8 @@
       <c r="C45" s="42">
         <v>10</v>
       </c>
-      <c r="D45" s="44">
-        <f>+C45/$C$49</f>
+      <c r="D45" s="65">
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
@@ -8838,8 +8886,8 @@
       <c r="C46" s="42">
         <v>65</v>
       </c>
-      <c r="D46" s="44">
-        <f>+C46/$C$49</f>
+      <c r="D46" s="65">
+        <f t="shared" si="1"/>
         <v>0.59090909090909094</v>
       </c>
     </row>
@@ -8850,8 +8898,8 @@
       <c r="C47" s="42">
         <v>0</v>
       </c>
-      <c r="D47" s="44">
-        <f>+C47/$C$49</f>
+      <c r="D47" s="65">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8862,8 +8910,8 @@
       <c r="C48" s="42">
         <v>1</v>
       </c>
-      <c r="D48" s="44">
-        <f>+C48/$C$49</f>
+      <c r="D48" s="65">
+        <f t="shared" si="1"/>
         <v>9.0909090909090905E-3</v>
       </c>
     </row>
@@ -8893,8 +8941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D8D00-9598-4E7E-BB98-90412B26ABCB}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8922,7 +8970,7 @@
       <c r="B2">
         <v>65</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="54">
         <v>0.59089999999999998</v>
       </c>
     </row>
@@ -8933,7 +8981,7 @@
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="54">
         <v>0.1091</v>
       </c>
     </row>
@@ -8944,7 +8992,7 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="54">
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
@@ -8955,7 +9003,7 @@
       <c r="B5">
         <v>9</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="54">
         <v>8.1799999999999998E-2</v>
       </c>
     </row>
@@ -8966,7 +9014,7 @@
       <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="54">
         <v>7.2700000000000001E-2</v>
       </c>
     </row>
@@ -8977,7 +9025,7 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="54">
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
@@ -8988,7 +9036,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="54">
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
@@ -8999,7 +9047,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="54">
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
@@ -9010,7 +9058,7 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="54">
         <v>0</v>
       </c>
     </row>
@@ -9021,7 +9069,7 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="54">
         <v>0</v>
       </c>
     </row>
@@ -9037,7 +9085,7 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\Proyectos\graficas-uinissa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3477A05D-EE52-400E-B0E8-F2E50F5BFD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D6868-D998-4358-8A24-30214DE8FAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{4A23034F-4E52-4C87-B0F0-EB7DD2EAA6CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{4A23034F-4E52-4C87-B0F0-EB7DD2EAA6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -791,11 +791,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d\,\ m"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1241,7 +1240,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5249,7 +5248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F2F95-5DDD-49C3-BE65-E9E02BAC80C8}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
       <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
@@ -6331,7 +6330,7 @@
   <dimension ref="G3:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6435,8 +6434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE199016-7B0C-482C-AC06-5EC441F31531}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7468,7 +7467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A7F9FF-05E6-4960-8D50-CCC439F771E6}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -8492,8 +8491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DBA84-5FAE-4153-BEB0-F66EB1B28800}">
   <dimension ref="B3:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N17:N19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8941,7 +8940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D8D00-9598-4E7E-BB98-90412B26ABCB}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -9085,7 +9084,7 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
